--- a/AllData/RawData/surveys/Graduates.xlsx
+++ b/AllData/RawData/surveys/Graduates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivomb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivombikubam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB6CF7-3CC3-4030-A176-212F479ED9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FAC810-8FF5-1146-B75A-E4C98FE7D1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,6 +142,9 @@
     <t>Woman</t>
   </si>
   <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>Taking Calculated Risks and Higher Rewards</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>Yes, I have thought about it extensively.</t>
   </si>
   <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>Yes, definitely.</t>
   </si>
   <si>
@@ -160,70 +166,68 @@
     <t xml:space="preserve"> I can handle moderate stress but prefer low-pressure environments.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I'm still exploring different career options.</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Masters</t>
   </si>
   <si>
-    <t>Somewhat important</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Entrepreneurship and Building My Own Business</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Jitzi</t>
-  </si>
-  <si>
-    <t>davidjitzi78@gmail.com</t>
-  </si>
-  <si>
-    <t>I am David Jitzi and i am a young graduate with a masters degree in business economics from the university of Antwerp where i majored in accounting and minored in data science. I equally hold a bachelors degree in accounting from the university of Buea in Cameroon. Professionally, i have worked as an accountant for over four years in cameroon.  I have also completed several internships in relation to my studies. During my masters degree program, i was involved in the data science challenge in collaboration with AXA bank. The aim of the project was to build a predictive model that will accurately predict which customers will default their loans using the python programming language. I successfully build a model that had an AUC of 85%. At the moment, i am looking for new challenges</t>
-  </si>
-  <si>
-    <t>Business and Entrepreneurship;Technology and Innovation;</t>
-  </si>
-  <si>
-    <t>Analytical and Problem-Solving;Communication and Interpersonal;Adaptability and Flexibility;Time Management and Organization;</t>
+    <t xml:space="preserve"> I have a clear career path in mind.</t>
+  </si>
+  <si>
+    <t>Extremely important</t>
+  </si>
+  <si>
+    <t>Climbing the Corporate Ladder</t>
   </si>
   <si>
     <t>Fast-paced and Dynamic Environment</t>
   </si>
   <si>
-    <t>A career that ensures continuous personal development, building and maintaining meaning relationships, work life balance, financial stability, continuous learning and autonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My past education is mostly in finance and i want to build a future career in AI and data analytics. my background in accounting enabled me to developed a strong analytical skills. In AI and data analytics, the ability to analyse and interprete complex data set is crucial. This gives me an advantange. Also, Accounting often involves meticulous attention to detail, an essential quality for working with data. In AI and data analytics, precision is key, and my experience in accounting can demonstrate my proficiency in handling intricate details. Again, Both accounting and data analytics require strong problem-solving skills. In accounting, we addressed complex financial issues. Similarly, in AI and data analytics, you will encounter challenges related to data quality, pattern recognition, and interpretation. lastly, both accounting and AI and data analytics requires high ethical cosideration in handling sensitive information. </t>
-  </si>
-  <si>
-    <t>Employers will prefer me over other candidates because of my unique skill set, problem solving approach, soft skills, my adaptability and agility. I do strive in any environment</t>
-  </si>
-  <si>
-    <t>As a accountant, i am most proud of successfully leading a cost cutting project for my company. The project involved identifying and implementing ways to reduce expenses in various areas of the business such as office supplies, travel expenses. To accomplish, i collaborated with the various department heads to undestand their spending patterns and identify areas foe potential cost savings. I then analysed the financial data to create a detailed cost-cutting plan and presented it to the administration. Through careful analysis and negotiations, i was able to cut office supplies cost by 10% and lower travelling expenses by 20%. This savings amounted to over 2000 euro in the annual cost reducation for the company. It was a great learning experience that enabled me to develop my analytical and strategic thinking skills while also demonstrating my dedication to adding value to the organisation.</t>
-  </si>
-  <si>
-    <t>My passion is in football. I have already passed the age of becoming a professional football but i think i could one day develop my analytical skills in making football predictions</t>
-  </si>
-  <si>
-    <t>I don't have sufficient technical  skills and industry knowledge that can make me become a professional in data analytic. I need coaching and guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I dont have a role model yet but i am working on it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This candidate has passion for data analytic roles in the finance sector. His is already making efforts to upskill in data analytics. Such as learning python, SQL but need practical experience. He is very good with microsoft excel.  He is good at communicating his ideas and confident when conversing.  A non technical role in the field of data analytics will be suitable for him. </t>
+    <t xml:space="preserve">Wainachi </t>
+  </si>
+  <si>
+    <t>Fortune Ndim</t>
+  </si>
+  <si>
+    <t>ndimgortune24@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a highly talented, results-oriented individual with a good record of accomplishments, I work as a Monitoring and Evaluation Supervisor for zone one which covers Military Hospitals in the South, East and Center Region. As and M&amp;E Supervisor, I ensure the documentation of quality data. I also ensure that this data is captured in the different database ensuring quality. I eventually work on weekly performance reports as well as monthly and quarterly reports which are used for evidence-based decision making. As a trained Public Health Epidemiologist, I possess a mastery in Data Management software such as; Excel and DAMA. I also have good knowledge on the use of Google form, Google DOC Power point as well as google Map and the reporting software DC2 and DATIM. I possess good typing skills, as well as web browsing. I am resourceful, flexible, fast learner, teamwork oriented as well as a critical thinker.  Expertise in;
+•	Data Management
+•	Project Management
+•	Civic Leadership
+</t>
+  </si>
+  <si>
+    <t>Technology and Innovation;Social and Environmental Causes;Health;</t>
+  </si>
+  <si>
+    <t>Communication and Interpersonal;Leadership and Management;Analytical and Problem-Solving;Adaptability and Flexibility;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I desire to end up a a Data scientist. The path i desire to take is to start a data analyst, progress to a senior data analyst and eventually end up as a data scientist.  Data analytics is a career path that is increasingly important as businesses and organizations strive to make more informed and data-driven decisions. With this growing societal need of Data analyst, and with the background i have had with working with data in the health sector, this has only helped to boast my passion in knowing more and becoming better to fit into the need in the world. </t>
+  </si>
+  <si>
+    <t>When i would have been able to acquire the required skills as a data analyst, and get a job in the field, eventually move to the different levels in the field and finally a data scientist, this will give me fulfillment. This will even be better is am able to make an impact with my work and in peoples lives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given that i did public health(Epidemiology) where we had courses on Biostatics where we used a couple of data analysis software, this has some what contributed to my desie to persue a career in data analysis. This has mostly been encouraged by the fact that after my masters degree all the jobs i have had have been in data management hence igniting the desire to pursue a career in the field of data managemet more.  </t>
+  </si>
+  <si>
+    <t>I am a very energetic, lady with great aptitude. I have a great ability to go extra lengths to achieve set objectives for myself and fo any organization i work for. I currently work with a millitary HIV project as a monitoring and evaluation supervisor and for the past two years that i worked with the project, we have experienced a steady increase in  our active file contrary to previous years where it wasnt stable. iI have great attention to details also and i am always ready to learn new things. I know when to ask for help as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the Past two years of my work as a monitoring and evaluation supervisor, our zone has experienced a steady increase in the patients active file, contrary to the previous years where the patient active file was uncertain. This is a prove of great team work at our level to ensure that the data reported is verifiable and true. additionally, i personally have grown in my interpersonal relationship with my colleagues as well as my tolerance for cultural differences.  </t>
+  </si>
+  <si>
+    <t>i love coaching youths as far as choosing career paths is concerned. i also love motivational speaking.</t>
+  </si>
+  <si>
+    <t>I know that i do not have enough skills to pursue my desired career and that's why I am trying to obtain more skills, in this way, i can comfortably step out there and postulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is very confident with many years of experience in Health data management.  She possess good communication and presentation skills. Based on her future aspirations as a data scientist, acquiring data analytics skills is mandatory. Note she is based in African where is not necessary to apply advance statistical models.  </t>
   </si>
 </sst>
 </file>
@@ -231,7 +235,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -264,7 +268,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,19 +365,19 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -736,50 +740,48 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="55.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="109" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="83.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="99.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="58.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="82.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="55.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="85.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="171.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="83.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="146.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="158" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="157" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="129.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="139.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="97.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="76.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="91.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="73" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="54" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="77.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="226.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="144.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="134" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="128" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -889,102 +891,102 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>45259.319293981498</v>
+        <v>45305.601875</v>
       </c>
       <c r="C2" s="1">
-        <v>45259.348703703698</v>
+        <v>45306.622118055602</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s">
         <v>50</v>
       </c>
       <c r="Z2" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>58</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AH2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" t="s">
         <v>64</v>
       </c>
       <c r="AJ2" t="s">
@@ -998,216 +1000,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB9B3745C8F5A042A3D0FC3DD7ADD711" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3478c417de9e2873901753371b20b42">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e825b35-f672-4970-9371-a8c632ee8dcc" xmlns:ns3="bd1879cd-8614-4443-8a96-207341b25768" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a38c54c64b2ab50cf5dc9bdabcf999c" ns2:_="" ns3:_="">
-    <xsd:import namespace="8e825b35-f672-4970-9371-a8c632ee8dcc"/>
-    <xsd:import namespace="bd1879cd-8614-4443-8a96-207341b25768"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8e825b35-f672-4970-9371-a8c632ee8dcc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d6554f0-efc9-4ab5-a2f5-d637e6fb4f4e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bd1879cd-8614-4443-8a96-207341b25768" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{dfae6f7c-33c5-4b8d-ac4b-3a5197ee741d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bd1879cd-8614-4443-8a96-207341b25768">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639CD911-083B-49D1-AEF4-AE509678D3C5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FDD0F87-8605-40A6-B60B-B79AF1588CFF}"/>
 </file>